--- a/DZ01/DigitalniKarton-StudijaIzvedivosti.xlsx
+++ b/DZ01/DigitalniKarton-StudijaIzvedivosti.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\korisnik\Desktop\Projektiranje informacijskih sustava\PIS-projekt\PIS-projekt\DZ01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E29B3E98-207C-491E-9BAB-648EE9056613}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C769D3D0-3BA0-4E20-8B6F-AA5DA550C03F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Analiza izvedivosti" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="43">
   <si>
     <t>Nadogradnja</t>
   </si>
@@ -67,9 +67,6 @@
     <t>Količina</t>
   </si>
   <si>
-    <t>Cijena</t>
-  </si>
-  <si>
     <t>Analitičar sustava</t>
   </si>
   <si>
@@ -85,12 +82,6 @@
     <t>Programer</t>
   </si>
   <si>
-    <t>Pisac dokumentacije</t>
-  </si>
-  <si>
-    <t>Tajnica</t>
-  </si>
-  <si>
     <t>Količina (u danima)</t>
   </si>
   <si>
@@ -100,24 +91,12 @@
     <t>Poduke za programere</t>
   </si>
   <si>
-    <t>Poduka za korisnike</t>
-  </si>
-  <si>
-    <t>Materijal</t>
-  </si>
-  <si>
     <t>Edukacije</t>
   </si>
   <si>
     <t>Vrsta</t>
   </si>
   <si>
-    <t>Potrošni materijal</t>
-  </si>
-  <si>
-    <t>Literatura</t>
-  </si>
-  <si>
     <t>Oprema</t>
   </si>
   <si>
@@ -170,6 +149,9 @@
   </si>
   <si>
     <t>Integracija s elektroničkim zdravstvenim karticam</t>
+  </si>
+  <si>
+    <t>Poduka za admistrativno osoblje</t>
   </si>
 </sst>
 </file>
@@ -219,7 +201,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="44">
+  <borders count="42">
     <border>
       <left/>
       <right/>
@@ -739,30 +721,6 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top style="medium">
         <color indexed="64"/>
@@ -800,7 +758,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -870,9 +828,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
@@ -895,13 +850,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -920,7 +868,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -960,13 +908,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1309,7 +1261,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
@@ -1324,37 +1276,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="1" customFormat="1" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="45" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="46"/>
+      <c r="C1" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>45</v>
-      </c>
       <c r="G1" s="10" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="J1" s="11" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="54" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="6" t="s">
@@ -1386,7 +1338,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="52"/>
+      <c r="A3" s="48"/>
       <c r="B3" s="7" t="s">
         <v>2</v>
       </c>
@@ -1416,7 +1368,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="52"/>
+      <c r="A4" s="48"/>
       <c r="B4" s="7" t="s">
         <v>3</v>
       </c>
@@ -1446,7 +1398,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="53"/>
+      <c r="A5" s="49"/>
       <c r="B5" s="8" t="s">
         <v>4</v>
       </c>
@@ -1476,45 +1428,45 @@
       </c>
     </row>
     <row r="6" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="54" t="s">
+      <c r="A6" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="55"/>
-      <c r="C6" s="39">
+      <c r="B6" s="51"/>
+      <c r="C6" s="35">
         <f>AVERAGE(C2:C5)</f>
         <v>2.75</v>
       </c>
-      <c r="D6" s="39">
+      <c r="D6" s="35">
         <f t="shared" ref="D6:J6" si="0">AVERAGE(D2:D5)</f>
         <v>2.25</v>
       </c>
-      <c r="E6" s="39">
+      <c r="E6" s="35">
         <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
-      <c r="F6" s="39">
+      <c r="F6" s="35">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="G6" s="39">
+      <c r="G6" s="35">
         <f t="shared" si="0"/>
         <v>1.75</v>
       </c>
-      <c r="H6" s="39">
+      <c r="H6" s="35">
         <f t="shared" si="0"/>
         <v>1.75</v>
       </c>
-      <c r="I6" s="39">
+      <c r="I6" s="35">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="J6" s="39">
+      <c r="J6" s="35">
         <f t="shared" si="0"/>
         <v>0.75</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="58" t="s">
+      <c r="A7" s="54" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="6" t="s">
@@ -1546,7 +1498,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="52"/>
+      <c r="A8" s="48"/>
       <c r="B8" s="7" t="s">
         <v>2</v>
       </c>
@@ -1576,7 +1528,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="52"/>
+      <c r="A9" s="48"/>
       <c r="B9" s="7" t="s">
         <v>3</v>
       </c>
@@ -1606,7 +1558,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="53"/>
+      <c r="A10" s="49"/>
       <c r="B10" s="8" t="s">
         <v>4</v>
       </c>
@@ -1636,45 +1588,45 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="54" t="s">
+      <c r="A11" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="55"/>
-      <c r="C11" s="39">
+      <c r="B11" s="51"/>
+      <c r="C11" s="35">
         <f>AVERAGE(C7:C10)</f>
         <v>0.5</v>
       </c>
-      <c r="D11" s="39">
+      <c r="D11" s="35">
         <f t="shared" ref="D11:J11" si="1">AVERAGE(D7:D10)</f>
         <v>1</v>
       </c>
-      <c r="E11" s="39">
+      <c r="E11" s="35">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="F11" s="39">
+      <c r="F11" s="35">
         <f t="shared" si="1"/>
         <v>2.75</v>
       </c>
-      <c r="G11" s="39">
+      <c r="G11" s="35">
         <f t="shared" si="1"/>
         <v>2.25</v>
       </c>
-      <c r="H11" s="39">
+      <c r="H11" s="35">
         <f t="shared" si="1"/>
         <v>2.75</v>
       </c>
-      <c r="I11" s="39">
+      <c r="I11" s="35">
         <f t="shared" si="1"/>
         <v>1.5</v>
       </c>
-      <c r="J11" s="39">
+      <c r="J11" s="35">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="58" t="s">
+      <c r="A12" s="54" t="s">
         <v>7</v>
       </c>
       <c r="B12" s="6" t="s">
@@ -1706,7 +1658,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="52"/>
+      <c r="A13" s="48"/>
       <c r="B13" s="7" t="s">
         <v>2</v>
       </c>
@@ -1736,7 +1688,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="52"/>
+      <c r="A14" s="48"/>
       <c r="B14" s="7" t="s">
         <v>3</v>
       </c>
@@ -1766,7 +1718,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="53"/>
+      <c r="A15" s="49"/>
       <c r="B15" s="8" t="s">
         <v>4</v>
       </c>
@@ -1796,39 +1748,39 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="56" t="s">
+      <c r="A16" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="57"/>
-      <c r="C16" s="39">
+      <c r="B16" s="53"/>
+      <c r="C16" s="35">
         <f>AVERAGE(C12:C15)</f>
         <v>2</v>
       </c>
-      <c r="D16" s="39">
+      <c r="D16" s="35">
         <f t="shared" ref="D16:J16" si="2">AVERAGE(D12:D15)</f>
         <v>2</v>
       </c>
-      <c r="E16" s="39">
+      <c r="E16" s="35">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="F16" s="39">
+      <c r="F16" s="35">
         <f t="shared" si="2"/>
         <v>1.75</v>
       </c>
-      <c r="G16" s="39">
+      <c r="G16" s="35">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="H16" s="39">
+      <c r="H16" s="35">
         <f t="shared" si="2"/>
         <v>2.25</v>
       </c>
-      <c r="I16" s="39">
+      <c r="I16" s="35">
         <f t="shared" si="2"/>
         <v>2.5</v>
       </c>
-      <c r="J16" s="39">
+      <c r="J16" s="35">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
@@ -1846,51 +1798,51 @@
       <c r="J17" s="1"/>
     </row>
     <row r="18" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="51" t="s">
+      <c r="A18" s="47" t="s">
         <v>8</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>0</v>
       </c>
       <c r="C18" s="12"/>
-      <c r="D18" s="42" t="s">
+      <c r="D18" s="38" t="s">
         <v>9</v>
       </c>
       <c r="E18" s="13"/>
       <c r="F18" s="13"/>
-      <c r="G18" s="42"/>
-      <c r="H18" s="42"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="38"/>
       <c r="I18" s="13"/>
       <c r="J18" s="3"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="52"/>
+      <c r="A19" s="48"/>
       <c r="B19" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="40"/>
-      <c r="D19" s="41"/>
-      <c r="E19" s="41" t="s">
+      <c r="C19" s="36"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="F19" s="41" t="s">
+      <c r="F19" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="G19" s="41" t="s">
+      <c r="G19" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="H19" s="41" t="s">
+      <c r="H19" s="37" t="s">
         <v>9</v>
       </c>
       <c r="I19" s="14"/>
       <c r="J19" s="4"/>
     </row>
     <row r="20" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="53"/>
+      <c r="A20" s="49"/>
       <c r="B20" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C20" s="48" t="s">
+      <c r="C20" s="44" t="s">
         <v>9</v>
       </c>
       <c r="D20" s="21"/>
@@ -1898,10 +1850,10 @@
       <c r="F20" s="21"/>
       <c r="G20" s="21"/>
       <c r="H20" s="21"/>
-      <c r="I20" s="43" t="s">
+      <c r="I20" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="J20" s="44" t="s">
+      <c r="J20" s="40" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1923,10 +1875,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1938,7 +1890,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="42" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1948,24 +1900,24 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="23" t="s">
-        <v>18</v>
-      </c>
       <c r="D4" s="24" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="29">
+      <c r="A5" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="28">
         <v>300</v>
       </c>
       <c r="C5" s="19">
@@ -1977,25 +1929,25 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="34">
+      <c r="A6" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="33">
         <v>195</v>
       </c>
       <c r="C6" s="14">
         <v>25</v>
       </c>
       <c r="D6" s="4">
-        <f t="shared" ref="D6:D9" si="0">B6*C6</f>
+        <f t="shared" ref="D6:D7" si="0">B6*C6</f>
         <v>4875</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="35" t="s">
-        <v>37</v>
-      </c>
-      <c r="B7" s="34">
+      <c r="A7" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="33">
         <v>160</v>
       </c>
       <c r="C7" s="14">
@@ -2006,232 +1958,173 @@
         <v>3200</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="37" t="s">
+    <row r="9" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="26"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+    </row>
+    <row r="10" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="38">
-        <v>140</v>
-      </c>
-      <c r="C8" s="16">
-        <v>10</v>
-      </c>
-      <c r="D8" s="4">
-        <f t="shared" si="0"/>
-        <v>1400</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="33" t="s">
+      <c r="D10" s="24" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="30">
-        <v>210</v>
-      </c>
-      <c r="C9" s="21">
-        <v>10</v>
-      </c>
-      <c r="D9" s="5">
-        <f t="shared" si="0"/>
-        <v>2100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="26" t="s">
+      <c r="B11" s="28">
+        <v>2</v>
+      </c>
+      <c r="C11" s="19">
+        <v>500</v>
+      </c>
+      <c r="D11" s="20">
+        <f>B11*C11</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" s="29">
+        <v>3</v>
+      </c>
+      <c r="C12" s="21">
+        <v>600</v>
+      </c>
+      <c r="D12" s="5">
+        <f>B12*C12</f>
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" s="29">
+        <v>5</v>
+      </c>
+      <c r="C13" s="21">
+        <v>600</v>
+      </c>
+      <c r="D13" s="5">
+        <f>B13*C13</f>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="58"/>
+      <c r="B14" s="59"/>
+      <c r="C14" s="59"/>
+      <c r="D14" s="59"/>
+    </row>
+    <row r="15" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="22" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="24" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" s="43">
+        <v>20</v>
+      </c>
+      <c r="C17" s="14">
+        <v>1000</v>
+      </c>
+      <c r="D17" s="4">
+        <f>B17*C17</f>
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="43">
+        <v>20</v>
+      </c>
+      <c r="C18" s="14">
+        <v>250</v>
+      </c>
+      <c r="D18" s="4">
+        <f>B18*C18</f>
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="27"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
-    </row>
-    <row r="12" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="31" t="s">
+      <c r="B19" s="33">
+        <v>1</v>
+      </c>
+      <c r="C19" s="14">
+        <v>3000</v>
+      </c>
+      <c r="D19" s="4">
+        <f t="shared" ref="D19:D20" si="1">B19*C19</f>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" s="24" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="29">
-        <v>4</v>
-      </c>
-      <c r="C13" s="19">
-        <v>500</v>
-      </c>
-      <c r="D13" s="20">
-        <f>B13*C13</f>
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" s="30">
-        <v>5</v>
-      </c>
-      <c r="C14" s="21">
-        <v>750</v>
-      </c>
-      <c r="D14" s="5">
-        <f>B14*C14</f>
-        <v>3750</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="33" t="s">
-        <v>46</v>
-      </c>
-      <c r="B15" s="30">
-        <v>3</v>
-      </c>
-      <c r="C15" s="21">
-        <v>600</v>
-      </c>
-      <c r="D15" s="5">
-        <f>B15*C15</f>
-        <v>1800</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="22" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="B18" s="36"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="24" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="B19" s="29"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="20">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="B20" s="30"/>
-      <c r="C20" s="21"/>
+      <c r="B20" s="29">
+        <v>1</v>
+      </c>
+      <c r="C20" s="21">
+        <v>1250</v>
+      </c>
       <c r="D20" s="5">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="22" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="B23" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="C23" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="D23" s="24" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="35" t="s">
-        <v>47</v>
-      </c>
-      <c r="B24" s="47">
-        <v>50</v>
-      </c>
-      <c r="C24" s="14">
-        <v>750</v>
-      </c>
-      <c r="D24" s="4">
-        <f>B24*C24</f>
-        <v>37500</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="B25" s="47">
-        <v>50</v>
-      </c>
-      <c r="C25" s="14">
-        <v>250</v>
-      </c>
-      <c r="D25" s="4">
-        <f>B25*C25</f>
-        <v>12500</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="B26" s="34">
-        <v>2</v>
-      </c>
-      <c r="C26" s="14">
-        <v>5000</v>
-      </c>
-      <c r="D26" s="4">
-        <f t="shared" ref="D26:D27" si="1">B26*C26</f>
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="B27" s="30">
-        <v>1</v>
-      </c>
-      <c r="C27" s="21">
-        <v>1250</v>
-      </c>
-      <c r="D27" s="5">
         <f t="shared" si="1"/>
         <v>1250</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="29" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="59" t="s">
-        <v>36</v>
-      </c>
-      <c r="B29" s="60"/>
-      <c r="C29" s="61"/>
-      <c r="D29" s="45">
-        <f>SUM(D1:D28)</f>
-        <v>90875</v>
+    <row r="21" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="22" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="55" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="56"/>
+      <c r="C22" s="57"/>
+      <c r="D22" s="41">
+        <f>SUM(D1:D21)</f>
+        <v>49125</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A22:C22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2259,6 +2152,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101007AFC1106DB8A04488E866355A5CEB218" ma:contentTypeVersion="2" ma:contentTypeDescription="Stvaranje novog dokumenta." ma:contentTypeScope="" ma:versionID="cf5653b097a0dc1db313e4d0258d9f51">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d34a4129-52ec-4ee5-bc77-23d8e5f94cfd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3c81d14dc3ad95f274f0f0999b8e60d5" ns2:_="">
     <xsd:import namespace="d34a4129-52ec-4ee5-bc77-23d8e5f94cfd"/>
@@ -2318,15 +2220,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD7DA977-5768-4922-8197-65E8CF2221D8}">
   <ds:schemaRefs>
@@ -2337,6 +2230,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D5758EF3-F7D3-4420-8E13-AF1AC80FD17D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{033D9B50-45AF-432E-87DC-2944701B1988}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2351,12 +2252,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D5758EF3-F7D3-4420-8E13-AF1AC80FD17D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>